--- a/dev/examples/results/output_file_NC.xlsx
+++ b/dev/examples/results/output_file_NC.xlsx
@@ -539,7 +539,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>2.0321450233459473</v>
+        <v>2.0082855224609375</v>
       </c>
       <c r="B2">
         <v>1</v>

--- a/dev/examples/results/output_file_NC.xlsx
+++ b/dev/examples/results/output_file_NC.xlsx
@@ -539,7 +539,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>2.0082855224609375</v>
+        <v>1.9839115142822266</v>
       </c>
       <c r="B2">
         <v>1</v>

--- a/dev/examples/results/output_file_NC.xlsx
+++ b/dev/examples/results/output_file_NC.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="45">
   <si>
     <t>comp_time</t>
   </si>
@@ -51,9 +51,6 @@
     <t>x_us_PV</t>
   </si>
   <si>
-    <t>x_us_generator</t>
-  </si>
-  <si>
     <t>x_us_batt</t>
   </si>
   <si>
@@ -108,9 +105,6 @@
     <t>CAPEX_us_PV</t>
   </si>
   <si>
-    <t>CAPEX_us_generator</t>
-  </si>
-  <si>
     <t>CAPEX_us_batt</t>
   </si>
   <si>
@@ -124,9 +118,6 @@
   </si>
   <si>
     <t>C_OEM_us_PV</t>
-  </si>
-  <si>
-    <t>C_OEM_us_generator</t>
   </si>
   <si>
     <t>C_OEM_us_batt</t>
@@ -539,7 +530,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>1.9839115142822266</v>
+        <v>1.2861533164978027</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -552,13 +543,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -583,13 +574,10 @@
       <c r="H1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" t="s">
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
-        <v>11</v>
       </c>
       <c r="B2">
         <v>55.29324587</v>
@@ -601,16 +589,13 @@
       <c r="E2">
         <v>50.0</v>
       </c>
-      <c r="F2">
-        <v>0.0</v>
-      </c>
+      <c r="F2"/>
       <c r="G2"/>
       <c r="H2"/>
-      <c r="I2"/>
-    </row>
-    <row r="3" spans="1:9">
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>27.00540954</v>
@@ -622,18 +607,17 @@
       <c r="E3">
         <v>25.489185845443384</v>
       </c>
-      <c r="F3"/>
+      <c r="F3">
+        <v>1.973245920368238</v>
+      </c>
       <c r="G3">
         <v>1.973245920368238</v>
       </c>
-      <c r="H3">
-        <v>1.973245920368238</v>
-      </c>
-      <c r="I3"/>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="H3"/>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4">
         <v>45.40292054</v>
@@ -643,17 +627,16 @@
       </c>
       <c r="D4"/>
       <c r="E4">
-        <v>44.04652629600476</v>
-      </c>
-      <c r="F4"/>
+        <v>44.04652629600474</v>
+      </c>
+      <c r="F4">
+        <v>3.7213684553918602</v>
+      </c>
       <c r="G4">
-        <v>3.721368455391854</v>
+        <v>3.7213684553918602</v>
       </c>
       <c r="H4">
-        <v>3.721368455391854</v>
-      </c>
-      <c r="I4">
-        <v>34.906983718279776</v>
+        <v>34.906983718279804</v>
       </c>
     </row>
   </sheetData>
@@ -663,83 +646,77 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:V4"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>15</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>18</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>19</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>20</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>21</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>22</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>23</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>24</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>25</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>26</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>27</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>28</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>29</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>30</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>31</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>32</v>
       </c>
-      <c r="T1" t="s">
-        <v>33</v>
-      </c>
-      <c r="U1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>-563669.0832118867</v>
@@ -751,7 +728,7 @@
         <v>-31580.287385073458</v>
       </c>
       <c r="E2">
-        <v>-8.573955168024072e-14</v>
+        <v>0.0</v>
       </c>
       <c r="F2">
         <v>22316.212290683256</v>
@@ -772,35 +749,29 @@
       <c r="L2">
         <v>85000.0</v>
       </c>
-      <c r="M2">
-        <v>0.0</v>
-      </c>
+      <c r="M2"/>
       <c r="N2"/>
       <c r="O2"/>
       <c r="P2"/>
-      <c r="Q2"/>
-      <c r="R2">
+      <c r="Q2">
         <v>1500.0</v>
       </c>
-      <c r="S2">
-        <v>0.0</v>
-      </c>
+      <c r="R2"/>
+      <c r="S2"/>
       <c r="T2"/>
-      <c r="U2"/>
-      <c r="V2"/>
-    </row>
-    <row r="3" spans="1:22">
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3">
-        <v>-223241.12057109879</v>
+        <v>-223241.12057109867</v>
       </c>
       <c r="C3">
         <v>36868.807735841685</v>
       </c>
       <c r="D3">
-        <v>-12164.328747674768</v>
+        <v>-12164.328747674772</v>
       </c>
       <c r="E3">
         <v>0.0</v>
@@ -818,91 +789,87 @@
         <v>8840.453007913167</v>
       </c>
       <c r="J3">
-        <v>-169392.55507295928</v>
+        <v>-169392.5550729593</v>
       </c>
       <c r="K3"/>
       <c r="L3">
         <v>35684.86018362074</v>
       </c>
-      <c r="M3"/>
+      <c r="M3">
+        <v>789.2983681472952</v>
+      </c>
       <c r="N3">
-        <v>789.2983681472952</v>
-      </c>
-      <c r="O3">
         <v>394.6491840736476</v>
       </c>
+      <c r="O3"/>
       <c r="P3"/>
-      <c r="Q3"/>
+      <c r="Q3">
+        <v>764.6755753633015</v>
+      </c>
       <c r="R3">
-        <v>764.6755753633015</v>
-      </c>
-      <c r="S3"/>
-      <c r="T3">
         <v>9.86622960184119</v>
       </c>
-      <c r="U3">
+      <c r="S3">
         <v>3.946491840736476</v>
       </c>
-      <c r="V3"/>
-    </row>
-    <row r="4" spans="1:22">
+      <c r="T3"/>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4">
         <v>-435831.69036038255</v>
       </c>
       <c r="C4">
-        <v>177428.21430168205</v>
+        <v>177428.2143016821</v>
       </c>
       <c r="D4">
-        <v>-17171.222950664833</v>
+        <v>-17171.222950664825</v>
       </c>
       <c r="E4">
         <v>0.0</v>
       </c>
       <c r="F4">
-        <v>35626.41777095829</v>
+        <v>35626.4177709583</v>
       </c>
       <c r="G4">
-        <v>1509.2514460525526</v>
+        <v>1509.251446052555</v>
       </c>
       <c r="H4">
         <v>8353.446369498317</v>
       </c>
       <c r="I4">
-        <v>9783.233210352739</v>
+        <v>9783.233210352735</v>
       </c>
       <c r="J4">
-        <v>-219838.02000083437</v>
+        <v>-219838.02000083425</v>
       </c>
       <c r="K4"/>
       <c r="L4">
-        <v>70474.44207360761</v>
-      </c>
-      <c r="M4"/>
+        <v>70474.44207360758</v>
+      </c>
+      <c r="M4">
+        <v>1488.547382156744</v>
+      </c>
       <c r="N4">
-        <v>1488.5473821567416</v>
+        <v>744.273691078372</v>
       </c>
       <c r="O4">
-        <v>744.2736910783708</v>
-      </c>
-      <c r="P4">
-        <v>104720.95115483932</v>
-      </c>
-      <c r="Q4"/>
+        <v>104720.95115483941</v>
+      </c>
+      <c r="P4"/>
+      <c r="Q4">
+        <v>1321.3957888801424</v>
+      </c>
       <c r="R4">
-        <v>1321.3957888801426</v>
-      </c>
-      <c r="S4"/>
+        <v>18.606842276959302</v>
+      </c>
+      <c r="S4">
+        <v>7.4427369107837205</v>
+      </c>
       <c r="T4">
-        <v>18.60684227695927</v>
-      </c>
-      <c r="U4">
-        <v>7.442736910783708</v>
-      </c>
-      <c r="V4">
-        <v>1047.2095115483933</v>
+        <v>1047.2095115483942</v>
       </c>
     </row>
   </sheetData>
@@ -920,48 +887,48 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" t="s">
         <v>36</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>37</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>38</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>39</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>40</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>41</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>42</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>43</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>44</v>
-      </c>
-      <c r="K1" t="s">
-        <v>45</v>
-      </c>
-      <c r="L1" t="s">
-        <v>46</v>
-      </c>
-      <c r="M1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>50.3983545</v>
@@ -1003,7 +970,7 @@
         <v>23.93422539963176</v>
       </c>
       <c r="O2">
-        <v>32.8611392682314</v>
+        <v>32.86113926823138</v>
       </c>
     </row>
   </sheetData>

--- a/dev/examples/results/output_file_NC.xlsx
+++ b/dev/examples/results/output_file_NC.xlsx
@@ -530,7 +530,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>1.2861533164978027</v>
+        <v>1.3010735511779785</v>
       </c>
       <c r="B2">
         <v>1</v>

--- a/dev/examples/results/output_file_NC.xlsx
+++ b/dev/examples/results/output_file_NC.xlsx
@@ -530,7 +530,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>1.3010735511779785</v>
+        <v>1.3102056980133057</v>
       </c>
       <c r="B2">
         <v>1</v>

--- a/dev/examples/results/output_file_NC.xlsx
+++ b/dev/examples/results/output_file_NC.xlsx
@@ -530,7 +530,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>1.3102056980133057</v>
+        <v>1.320033311843872</v>
       </c>
       <c r="B2">
         <v>1</v>

--- a/dev/examples/results/output_file_NC.xlsx
+++ b/dev/examples/results/output_file_NC.xlsx
@@ -530,7 +530,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>1.320033311843872</v>
+        <v>1.3562138080596924</v>
       </c>
       <c r="B2">
         <v>1</v>

--- a/dev/examples/results/output_file_NC.xlsx
+++ b/dev/examples/results/output_file_NC.xlsx
@@ -530,7 +530,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>1.3562138080596924</v>
+        <v>1.3064236640930176</v>
       </c>
       <c r="B2">
         <v>1</v>

--- a/dev/examples/results/output_file_NC.xlsx
+++ b/dev/examples/results/output_file_NC.xlsx
@@ -530,7 +530,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>1.3064236640930176</v>
+        <v>1.304020881652832</v>
       </c>
       <c r="B2">
         <v>1</v>

--- a/dev/examples/results/output_file_NC.xlsx
+++ b/dev/examples/results/output_file_NC.xlsx
@@ -530,7 +530,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>1.304020881652832</v>
+        <v>1.342353105545044</v>
       </c>
       <c r="B2">
         <v>1</v>

--- a/dev/examples/results/output_file_NC.xlsx
+++ b/dev/examples/results/output_file_NC.xlsx
@@ -530,7 +530,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>1.342353105545044</v>
+        <v>1.2935004234313965</v>
       </c>
       <c r="B2">
         <v>1</v>

--- a/dev/examples/results/output_file_NC.xlsx
+++ b/dev/examples/results/output_file_NC.xlsx
@@ -530,7 +530,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>1.2935004234313965</v>
+        <v>1.3420782089233398</v>
       </c>
       <c r="B2">
         <v>1</v>

--- a/dev/examples/results/output_file_NC.xlsx
+++ b/dev/examples/results/output_file_NC.xlsx
@@ -530,7 +530,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>1.3420782089233398</v>
+        <v>1.2898669242858887</v>
       </c>
       <c r="B2">
         <v>1</v>

--- a/dev/examples/results/output_file_NC.xlsx
+++ b/dev/examples/results/output_file_NC.xlsx
@@ -530,7 +530,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>1.2898669242858887</v>
+        <v>1.2703425884246826</v>
       </c>
       <c r="B2">
         <v>1</v>

--- a/dev/examples/results/output_file_NC.xlsx
+++ b/dev/examples/results/output_file_NC.xlsx
@@ -530,7 +530,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>1.2703425884246826</v>
+        <v>1.2978253364562988</v>
       </c>
       <c r="B2">
         <v>1</v>

--- a/dev/examples/results/output_file_NC.xlsx
+++ b/dev/examples/results/output_file_NC.xlsx
@@ -530,7 +530,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>1.2978253364562988</v>
+        <v>1.318688154220581</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -580,10 +580,10 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>55.29324587</v>
+        <v>30523.270014740006</v>
       </c>
       <c r="C2">
-        <v>232.10403242918818</v>
+        <v>232.10403242918812</v>
       </c>
       <c r="D2"/>
       <c r="E2">
@@ -598,10 +598,10 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>27.00540954</v>
+        <v>12160.103553284996</v>
       </c>
       <c r="C3">
-        <v>92.46745411323812</v>
+        <v>92.467454113238</v>
       </c>
       <c r="D3"/>
       <c r="E3">
@@ -620,10 +620,10 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>45.40292054</v>
+        <v>24500.351344201987</v>
       </c>
       <c r="C4">
-        <v>186.3047550336197</v>
+        <v>186.30475503361959</v>
       </c>
       <c r="D4"/>
       <c r="E4">

--- a/dev/examples/results/output_file_NC.xlsx
+++ b/dev/examples/results/output_file_NC.xlsx
@@ -530,7 +530,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>1.318688154220581</v>
+        <v>1.4526050090789795</v>
       </c>
       <c r="B2">
         <v>1</v>

--- a/dev/examples/results/output_file_NC.xlsx
+++ b/dev/examples/results/output_file_NC.xlsx
@@ -530,7 +530,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>1.4526050090789795</v>
+        <v>1.4522168636322021</v>
       </c>
       <c r="B2">
         <v>1</v>

--- a/dev/examples/results/output_file_NC.xlsx
+++ b/dev/examples/results/output_file_NC.xlsx
@@ -530,7 +530,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>1.4522168636322021</v>
+        <v>1.357926368713379</v>
       </c>
       <c r="B2">
         <v>1</v>

--- a/dev/examples/results/output_file_NC.xlsx
+++ b/dev/examples/results/output_file_NC.xlsx
@@ -530,7 +530,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>1.357926368713379</v>
+        <v>1.3325705528259277</v>
       </c>
       <c r="B2">
         <v>1</v>

--- a/dev/examples/results/output_file_NC.xlsx
+++ b/dev/examples/results/output_file_NC.xlsx
@@ -530,7 +530,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>1.3325705528259277</v>
+        <v>1.3214013576507568</v>
       </c>
       <c r="B2">
         <v>1</v>

--- a/dev/examples/results/output_file_NC.xlsx
+++ b/dev/examples/results/output_file_NC.xlsx
@@ -530,7 +530,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>1.3214013576507568</v>
+        <v>1.3300225734710693</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -765,7 +765,7 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>-223241.12057109867</v>
+        <v>-223241.1205710986</v>
       </c>
       <c r="C3">
         <v>36868.807735841685</v>
@@ -780,7 +780,7 @@
         <v>11581.94006488829</v>
       </c>
       <c r="G3">
-        <v>800.2766440442327</v>
+        <v>800.2766440442326</v>
       </c>
       <c r="H3">
         <v>4242.911954548019</v>

--- a/dev/examples/results/output_file_NC.xlsx
+++ b/dev/examples/results/output_file_NC.xlsx
@@ -530,7 +530,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>1.3300225734710693</v>
+        <v>1.3597488403320312</v>
       </c>
       <c r="B2">
         <v>1</v>

--- a/dev/examples/results/output_file_NC.xlsx
+++ b/dev/examples/results/output_file_NC.xlsx
@@ -530,7 +530,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>1.3597488403320312</v>
+        <v>1.380669355392456</v>
       </c>
       <c r="B2">
         <v>1</v>

--- a/dev/examples/results/output_file_NC.xlsx
+++ b/dev/examples/results/output_file_NC.xlsx
@@ -530,7 +530,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>1.380669355392456</v>
+        <v>1.3563039302825928</v>
       </c>
       <c r="B2">
         <v>1</v>

--- a/dev/examples/results/output_file_NC.xlsx
+++ b/dev/examples/results/output_file_NC.xlsx
@@ -530,7 +530,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>1.3563039302825928</v>
+        <v>1.3432366847991943</v>
       </c>
       <c r="B2">
         <v>1</v>

--- a/dev/examples/results/output_file_NC.xlsx
+++ b/dev/examples/results/output_file_NC.xlsx
@@ -530,7 +530,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>1.3432366847991943</v>
+        <v>1.3712399005889893</v>
       </c>
       <c r="B2">
         <v>1</v>

--- a/dev/examples/results/output_file_NC.xlsx
+++ b/dev/examples/results/output_file_NC.xlsx
@@ -530,7 +530,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>1.3712399005889893</v>
+        <v>1.3316903114318848</v>
       </c>
       <c r="B2">
         <v>1</v>

--- a/dev/examples/results/output_file_NC.xlsx
+++ b/dev/examples/results/output_file_NC.xlsx
@@ -530,7 +530,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>1.3316903114318848</v>
+        <v>1.340263843536377</v>
       </c>
       <c r="B2">
         <v>1</v>

--- a/dev/examples/results/output_file_NC.xlsx
+++ b/dev/examples/results/output_file_NC.xlsx
@@ -530,7 +530,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>1.340263843536377</v>
+        <v>1.3382322788238525</v>
       </c>
       <c r="B2">
         <v>1</v>

--- a/dev/examples/results/output_file_NC.xlsx
+++ b/dev/examples/results/output_file_NC.xlsx
@@ -530,7 +530,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>1.3382322788238525</v>
+        <v>1.3672497272491455</v>
       </c>
       <c r="B2">
         <v>1</v>
